--- a/data/trans_orig/P0801-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>240342</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>228371</v>
+        <v>229029</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>250282</v>
+        <v>250183</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8803414365486902</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8364930460432402</v>
+        <v>0.8389044996215318</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9167502282536398</v>
+        <v>0.9163881823914064</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>200</v>
@@ -765,19 +765,19 @@
         <v>212959</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>199317</v>
+        <v>199446</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>225135</v>
+        <v>224927</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8164410577479433</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.764140376658745</v>
+        <v>0.7646366697035392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8631229971915404</v>
+        <v>0.8623254927403041</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>438</v>
@@ -786,19 +786,19 @@
         <v>453301</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>435127</v>
+        <v>435494</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>468044</v>
+        <v>469817</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.849119718271989</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8150765258906986</v>
+        <v>0.8157632994510168</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8767356174631806</v>
+        <v>0.8800574176421893</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>26672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18348</v>
+        <v>17587</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37705</v>
+        <v>37828</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09769663286947265</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06720713228825465</v>
+        <v>0.06441985322125933</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1381090159123089</v>
+        <v>0.1385573298176921</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -836,19 +836,19 @@
         <v>43234</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31546</v>
+        <v>32183</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>56703</v>
+        <v>57325</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.165749100345639</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1209408920245033</v>
+        <v>0.123384753084518</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2173859998641229</v>
+        <v>0.2197730677928684</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -857,19 +857,19 @@
         <v>69906</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53904</v>
+        <v>54385</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86787</v>
+        <v>86267</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1309470612307895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1009716423374396</v>
+        <v>0.1018732903091519</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1625687641871663</v>
+        <v>0.1615952671514309</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>5996</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2199</v>
+        <v>2397</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12714</v>
+        <v>12519</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02196193058183709</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008055571136138117</v>
+        <v>0.008778468424366614</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0465692280626847</v>
+        <v>0.04585545295429852</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -907,19 +907,19 @@
         <v>4645</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1173</v>
+        <v>1196</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11014</v>
+        <v>12584</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01780984190641764</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004495403008627448</v>
+        <v>0.004585889794618467</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04222396801844105</v>
+        <v>0.04824274212546692</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -928,19 +928,19 @@
         <v>10641</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5106</v>
+        <v>5082</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19374</v>
+        <v>18157</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01993322049722156</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009564502243721794</v>
+        <v>0.009520139336008147</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03629130758795067</v>
+        <v>0.03401147136310698</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>432915</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>418341</v>
+        <v>416588</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>447159</v>
+        <v>446981</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8779906351430805</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8484329516762871</v>
+        <v>0.8448770054033758</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9068788024269407</v>
+        <v>0.9065165752573818</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>380</v>
@@ -1053,19 +1053,19 @@
         <v>381155</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>360474</v>
+        <v>360178</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>400008</v>
+        <v>398845</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7563372814591921</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7152979465495798</v>
+        <v>0.7147105012314632</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7937472067530877</v>
+        <v>0.7914394629129257</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>788</v>
@@ -1074,19 +1074,19 @@
         <v>814071</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>790573</v>
+        <v>791126</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>836523</v>
+        <v>838235</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8165005578695652</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7929329746417554</v>
+        <v>0.7934878659533247</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8390198406191141</v>
+        <v>0.8407368309146044</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>42350</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30822</v>
+        <v>30137</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>55310</v>
+        <v>56287</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08588889423851187</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06251068137267186</v>
+        <v>0.06111983884919653</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1121726196057917</v>
+        <v>0.1141541441861526</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>85</v>
@@ -1124,19 +1124,19 @@
         <v>87251</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>71559</v>
+        <v>71902</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>106166</v>
+        <v>104779</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1731346260666742</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1419968203697683</v>
+        <v>0.1426768514690824</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2106675323897224</v>
+        <v>0.2079168599314153</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>126</v>
@@ -1145,19 +1145,19 @@
         <v>129601</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>110578</v>
+        <v>109906</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>152264</v>
+        <v>150403</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1299875288379179</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1109078302920725</v>
+        <v>0.1102339734517039</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1527188146393005</v>
+        <v>0.1508518719672136</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>17810</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10132</v>
+        <v>10683</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29127</v>
+        <v>29092</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03612047061840766</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02054788688983755</v>
+        <v>0.02166563450719795</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05907255982146461</v>
+        <v>0.05900090951280644</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1195,19 +1195,19 @@
         <v>35543</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25642</v>
+        <v>25467</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49185</v>
+        <v>49082</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07052809247413364</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05088270171580488</v>
+        <v>0.05053547015331774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09759898896377582</v>
+        <v>0.09739439349298633</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -1216,19 +1216,19 @@
         <v>53353</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40262</v>
+        <v>39452</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68935</v>
+        <v>68674</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05351191329251693</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04038257724921444</v>
+        <v>0.03957006310677752</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06914110246395068</v>
+        <v>0.06887880809710117</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>295276</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>284716</v>
+        <v>284232</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>303867</v>
+        <v>303192</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9260776359700617</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8929563072515446</v>
+        <v>0.8914402318119532</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9530222214263223</v>
+        <v>0.95090422208626</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>265</v>
@@ -1341,19 +1341,19 @@
         <v>263527</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>248417</v>
+        <v>247857</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>279207</v>
+        <v>277060</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7856808072663037</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7406313413674586</v>
+        <v>0.7389619231944153</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8324299332521347</v>
+        <v>0.826029878697815</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>552</v>
@@ -1362,19 +1362,19 @@
         <v>558803</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>539382</v>
+        <v>540264</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>574290</v>
+        <v>576449</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.854101767720195</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.824417814325754</v>
+        <v>0.8257666101951119</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8777732508755592</v>
+        <v>0.8810724126658908</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>19675</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11696</v>
+        <v>12065</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29587</v>
+        <v>30738</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06170829915765946</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03668284772307406</v>
+        <v>0.03783851158608212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09279426709704218</v>
+        <v>0.09640465310381403</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -1412,19 +1412,19 @@
         <v>56681</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43830</v>
+        <v>44112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71548</v>
+        <v>70578</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1689892687123858</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1306745495756453</v>
+        <v>0.1315166681639391</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2133143889931111</v>
+        <v>0.2104221290384301</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -1433,19 +1433,19 @@
         <v>76356</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61484</v>
+        <v>61084</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94228</v>
+        <v>92694</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1167069839689943</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09397542547125652</v>
+        <v>0.09336335799565021</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1440231445039433</v>
+        <v>0.1416781110111779</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>3894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>943</v>
+        <v>959</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9762</v>
+        <v>9783</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01221406487227886</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002957643789220353</v>
+        <v>0.003007508962957845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03061731282643462</v>
+        <v>0.03068187767445018</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -1483,19 +1483,19 @@
         <v>15204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8895</v>
+        <v>8500</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25113</v>
+        <v>23887</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04532992402131043</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02651944051123211</v>
+        <v>0.02534241967263013</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0748735782927363</v>
+        <v>0.07121704513786738</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1504,19 +1504,19 @@
         <v>19099</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12065</v>
+        <v>11234</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29095</v>
+        <v>29242</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02919124831081077</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01844008573662267</v>
+        <v>0.01717021036731805</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04447006562833813</v>
+        <v>0.04469437162484818</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>325571</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>314017</v>
+        <v>312994</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>334921</v>
+        <v>335603</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9077137330647062</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8755003183128507</v>
+        <v>0.8726492763318677</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9337830634529755</v>
+        <v>0.9356848131467471</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>307</v>
@@ -1629,19 +1629,19 @@
         <v>295560</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>280069</v>
+        <v>279873</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>310517</v>
+        <v>309769</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7956794193584223</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7539759236427614</v>
+        <v>0.7534478815752139</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8359468525666327</v>
+        <v>0.8339319134202663</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>635</v>
@@ -1650,19 +1650,19 @@
         <v>621130</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>602245</v>
+        <v>600409</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>637950</v>
+        <v>637956</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8507156906364797</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8248501752559384</v>
+        <v>0.8223349555222572</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8737526022028318</v>
+        <v>0.8737598189882582</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>25218</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17389</v>
+        <v>16597</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36766</v>
+        <v>36139</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0703081947697529</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04848256077638375</v>
+        <v>0.04627418059661867</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1025075235325342</v>
+        <v>0.1007575813522958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -1700,19 +1700,19 @@
         <v>59951</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47604</v>
+        <v>47266</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>76069</v>
+        <v>75854</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1613957657266231</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1281561690433249</v>
+        <v>0.1272449644000978</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2047868725137769</v>
+        <v>0.2042074850473972</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>87</v>
@@ -1721,19 +1721,19 @@
         <v>85169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70637</v>
+        <v>70914</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>104125</v>
+        <v>105132</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1166494723866709</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09674592539077059</v>
+        <v>0.09712507993384124</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1426124212062811</v>
+        <v>0.1439916083868437</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>7883</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3758</v>
+        <v>3604</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15479</v>
+        <v>15711</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02197807216554097</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01047739073679112</v>
+        <v>0.01004778512813997</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04315662819922129</v>
+        <v>0.04380258597101226</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1771,19 +1771,19 @@
         <v>15945</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9181</v>
+        <v>9337</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24523</v>
+        <v>25094</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04292481491495451</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02471514804645454</v>
+        <v>0.02513510566783628</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06601974127713685</v>
+        <v>0.0675559554520601</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>24</v>
@@ -1792,19 +1792,19 @@
         <v>23828</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>15254</v>
+        <v>15938</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>35403</v>
+        <v>34963</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03263483697684943</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02089244336087586</v>
+        <v>0.02182926798172403</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04848841127743127</v>
+        <v>0.04788594693531933</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>188146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>180185</v>
+        <v>180477</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194575</v>
+        <v>194520</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9254243319654586</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8862664261130699</v>
+        <v>0.8877011623326885</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9570473094948471</v>
+        <v>0.9567771011987868</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>165</v>
@@ -1917,19 +1917,19 @@
         <v>172953</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>159645</v>
+        <v>160499</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>182186</v>
+        <v>182510</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8328346132143026</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7687492675783144</v>
+        <v>0.7728653080945294</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8772959961659716</v>
+        <v>0.878854739982794</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>353</v>
@@ -1938,19 +1938,19 @@
         <v>361099</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>346467</v>
+        <v>346901</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>372991</v>
+        <v>372706</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8786383406628965</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8430358345555965</v>
+        <v>0.8440912325627093</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9075740999420774</v>
+        <v>0.9068802117401055</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>9928</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5214</v>
+        <v>5161</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17167</v>
+        <v>17022</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04883040160406599</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.025644554668611</v>
+        <v>0.02538342754971524</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08443620545744566</v>
+        <v>0.08372377588784523</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -1988,19 +1988,19 @@
         <v>21800</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14295</v>
+        <v>13785</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32196</v>
+        <v>32388</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1049770755813957</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06883803422946598</v>
+        <v>0.0663808044640424</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1550365870982399</v>
+        <v>0.1559585587836358</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>33</v>
@@ -2009,19 +2009,19 @@
         <v>31728</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22087</v>
+        <v>21892</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>43385</v>
+        <v>43158</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07720156241762387</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05374328771495099</v>
+        <v>0.05326870710633144</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1055667323195123</v>
+        <v>0.1050128080805253</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>5234</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1867</v>
+        <v>1807</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11351</v>
+        <v>10719</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02574526643047537</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009183995375863728</v>
+        <v>0.008886907789987086</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05583145784532589</v>
+        <v>0.05272239438098479</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2059,19 +2059,19 @@
         <v>12915</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7304</v>
+        <v>7421</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21136</v>
+        <v>21732</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06218831120430158</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03517031665518848</v>
+        <v>0.03573440989014856</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1017783348549137</v>
+        <v>0.1046463177468502</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -2080,19 +2080,19 @@
         <v>18149</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10834</v>
+        <v>11449</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26874</v>
+        <v>27850</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04416009691947961</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02636218803209535</v>
+        <v>0.02785847920944889</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06539107582771266</v>
+        <v>0.06776526432867944</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>241957</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>230689</v>
+        <v>231866</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>250696</v>
+        <v>250578</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8934534262479279</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8518436761860313</v>
+        <v>0.856192664155676</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9257213405977549</v>
+        <v>0.9252887246408249</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>204</v>
@@ -2205,19 +2205,19 @@
         <v>208365</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>193810</v>
+        <v>192730</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>222984</v>
+        <v>223348</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7491254499672675</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.696798542277744</v>
+        <v>0.6929158637190094</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8016856058508472</v>
+        <v>0.8029956853162065</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>440</v>
@@ -2226,19 +2226,19 @@
         <v>450322</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>431776</v>
+        <v>431950</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>468264</v>
+        <v>466531</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.820325464316117</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7865413453700013</v>
+        <v>0.7868593463781122</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8530089805279192</v>
+        <v>0.8498537452792113</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>25093</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16898</v>
+        <v>17637</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34683</v>
+        <v>35144</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09265945165113865</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06239859457855672</v>
+        <v>0.06512658341073607</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1280727106408697</v>
+        <v>0.1297714978722569</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -2276,19 +2276,19 @@
         <v>55355</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42320</v>
+        <v>41830</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>69481</v>
+        <v>69277</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1990148403227433</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.152150875267522</v>
+        <v>0.150389801371633</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2498035163498084</v>
+        <v>0.2490685449175934</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>79</v>
@@ -2297,19 +2297,19 @@
         <v>80448</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>63482</v>
+        <v>65824</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96246</v>
+        <v>98133</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.146547498961494</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1156417809728701</v>
+        <v>0.1199070470195497</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1753267108568203</v>
+        <v>0.1787630425704546</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>3761</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9071</v>
+        <v>9222</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01388712210093348</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003518807922895461</v>
+        <v>0.00351188067732299</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03349601290799979</v>
+        <v>0.0340533639240803</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -2347,19 +2347,19 @@
         <v>14424</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7917</v>
+        <v>7866</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23291</v>
+        <v>23268</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05185970970998915</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02846527909214319</v>
+        <v>0.02827912652474817</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08373629913673589</v>
+        <v>0.08365295404050936</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -2368,19 +2368,19 @@
         <v>18185</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11183</v>
+        <v>11445</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28505</v>
+        <v>29667</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03312703672238911</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02037118648515149</v>
+        <v>0.02084810773851842</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05192527785068356</v>
+        <v>0.05404280909710884</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>539507</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>521195</v>
+        <v>523452</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>553541</v>
+        <v>555870</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8772084302680314</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8474344800807089</v>
+        <v>0.8511033616404551</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9000267572524887</v>
+        <v>0.9038138912298813</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>485</v>
@@ -2493,19 +2493,19 @@
         <v>502059</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>481175</v>
+        <v>478832</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>521484</v>
+        <v>521651</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.786656054356083</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7539332827017837</v>
+        <v>0.7502623014636134</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8170930252069574</v>
+        <v>0.8173541829918867</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1004</v>
@@ -2514,19 +2514,19 @@
         <v>1041566</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1015469</v>
+        <v>1014869</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1067026</v>
+        <v>1066881</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8310943805709887</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.810271210584643</v>
+        <v>0.8097922898550562</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.851410119475679</v>
+        <v>0.8512938749453016</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>54819</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>41970</v>
+        <v>41589</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>70488</v>
+        <v>69006</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08913255380309268</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06824049598773421</v>
+        <v>0.06762172548487309</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1146102212386041</v>
+        <v>0.1122000595103829</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>98</v>
@@ -2564,19 +2564,19 @@
         <v>97904</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>81537</v>
+        <v>81607</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>116277</v>
+        <v>118788</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1534016870676288</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1277567445364235</v>
+        <v>0.1278661363842706</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1821902102998375</v>
+        <v>0.1861235758571448</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>155</v>
@@ -2585,19 +2585,19 @@
         <v>152723</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>128824</v>
+        <v>131633</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>175361</v>
+        <v>175740</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.121861788961191</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1027924270264866</v>
+        <v>0.1050339828322144</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1399252627862145</v>
+        <v>0.1402278368132781</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>20701</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13567</v>
+        <v>13286</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31552</v>
+        <v>32307</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03365901592887596</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02205972505379447</v>
+        <v>0.02160179142239661</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05130187961422829</v>
+        <v>0.05252924793428224</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>38</v>
@@ -2635,19 +2635,19 @@
         <v>38256</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>26728</v>
+        <v>27171</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>50999</v>
+        <v>51887</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05994225857628821</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04187933158974834</v>
+        <v>0.04257320778445221</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07990895281302982</v>
+        <v>0.08129971095212733</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>60</v>
@@ -2656,19 +2656,19 @@
         <v>58957</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>46133</v>
+        <v>44886</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>75575</v>
+        <v>74519</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04704383046782028</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03681104429465295</v>
+        <v>0.03581548894727069</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06030359086009315</v>
+        <v>0.05946105488907443</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>647065</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>628779</v>
+        <v>628298</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>664805</v>
+        <v>664233</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8699505964629088</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.845365866518177</v>
+        <v>0.8447190598231842</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8938019661529809</v>
+        <v>0.893032357680516</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>593</v>
@@ -2781,19 +2781,19 @@
         <v>618604</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>594314</v>
+        <v>595040</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>642094</v>
+        <v>640330</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7895283693440941</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7585265046619881</v>
+        <v>0.7594529201026158</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8195079950528359</v>
+        <v>0.8172567187943496</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1227</v>
@@ -2802,19 +2802,19 @@
         <v>1265669</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1235229</v>
+        <v>1236254</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1293517</v>
+        <v>1293615</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8286938359544194</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.808762971088676</v>
+        <v>0.8094345008098006</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8469269009863593</v>
+        <v>0.8469912036083964</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>60447</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>47082</v>
+        <v>47439</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>76784</v>
+        <v>77858</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08126786831896894</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06329907438163693</v>
+        <v>0.06377909830656428</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.103232408545325</v>
+        <v>0.1046765128650387</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>110</v>
@@ -2852,19 +2852,19 @@
         <v>118796</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>99080</v>
+        <v>100704</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>141241</v>
+        <v>140454</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1516195053172032</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1264562138116534</v>
+        <v>0.1285287014982759</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.180266800107258</v>
+        <v>0.1792624053091549</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>174</v>
@@ -2873,19 +2873,19 @@
         <v>179242</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>155064</v>
+        <v>155820</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>204669</v>
+        <v>207178</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1173583963110408</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1015278821911482</v>
+        <v>0.1020226678255258</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1340064630840962</v>
+        <v>0.1356492802542178</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>36283</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>25875</v>
+        <v>25639</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>49104</v>
+        <v>49437</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04878153521812224</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03478756437938461</v>
+        <v>0.03446991730497782</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06601762526886799</v>
+        <v>0.066465974319196</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>42</v>
@@ -2923,19 +2923,19 @@
         <v>46111</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>34629</v>
+        <v>33567</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>61134</v>
+        <v>61242</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05885212533870273</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04419671906454371</v>
+        <v>0.04284190484859453</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07802521297229399</v>
+        <v>0.07816385775609543</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>80</v>
@@ -2944,19 +2944,19 @@
         <v>82395</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>64914</v>
+        <v>66014</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>101488</v>
+        <v>101503</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05394776773453993</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0425022742050933</v>
+        <v>0.04322249218935435</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06644925317041391</v>
+        <v>0.06645913797864628</v>
       </c>
     </row>
     <row r="35">
@@ -3048,19 +3048,19 @@
         <v>2910779</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2874722</v>
+        <v>2874806</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2945215</v>
+        <v>2944301</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8883689154948771</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8773644324784667</v>
+        <v>0.8773898927355674</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8988786903449318</v>
+        <v>0.8985998644568961</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2599</v>
@@ -3069,19 +3069,19 @@
         <v>2655182</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2606762</v>
+        <v>2601501</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2702427</v>
+        <v>2694574</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7857434150350527</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7714147014534226</v>
+        <v>0.7698577426417625</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7997246561623249</v>
+        <v>0.7974007060451586</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5437</v>
@@ -3090,19 +3090,19 @@
         <v>5565962</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5504742</v>
+        <v>5505489</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5625054</v>
+        <v>5622299</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.836264749448382</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8270667490912892</v>
+        <v>0.8271789359680009</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8451431960327884</v>
+        <v>0.8447292232217345</v>
       </c>
     </row>
     <row r="37">
@@ -3119,19 +3119,19 @@
         <v>264201</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>233278</v>
+        <v>234654</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>296076</v>
+        <v>297168</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08063411624040026</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07119635473172016</v>
+        <v>0.07161639177083202</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09036224986122021</v>
+        <v>0.0906954717991971</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>524</v>
@@ -3140,19 +3140,19 @@
         <v>540972</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>500331</v>
+        <v>503448</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>584882</v>
+        <v>586365</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1600888393457106</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1480620625993608</v>
+        <v>0.1489845420807673</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1730830014556906</v>
+        <v>0.1735219103565266</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>796</v>
@@ -3161,19 +3161,19 @@
         <v>805173</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>753546</v>
+        <v>754921</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>859169</v>
+        <v>858012</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1209742078093381</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1132174502968542</v>
+        <v>0.1134239903447484</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1290868388467217</v>
+        <v>0.1289130058156721</v>
       </c>
     </row>
     <row r="38">
@@ -3190,19 +3190,19 @@
         <v>101563</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>84898</v>
+        <v>84817</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>123432</v>
+        <v>122123</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03099696826472264</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02591098870819802</v>
+        <v>0.02588606590268139</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03767141782360228</v>
+        <v>0.03727192344294759</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>174</v>
@@ -3211,19 +3211,19 @@
         <v>183043</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>157766</v>
+        <v>158503</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>211016</v>
+        <v>211904</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05416774561923661</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04668756143846371</v>
+        <v>0.04690552047702047</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.06244559834458655</v>
+        <v>0.06270844801077681</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>278</v>
@@ -3232,19 +3232,19 @@
         <v>284606</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>252232</v>
+        <v>254625</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>318279</v>
+        <v>316794</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04276104274227994</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0378968361067046</v>
+        <v>0.03825644571088829</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04782020588411287</v>
+        <v>0.04759713991341154</v>
       </c>
     </row>
     <row r="39">
@@ -3580,19 +3580,19 @@
         <v>245625</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>232175</v>
+        <v>231445</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>258067</v>
+        <v>258125</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8333672907595971</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7877341117780983</v>
+        <v>0.7852551929206628</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8755822687008901</v>
+        <v>0.8757770337695835</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>180</v>
@@ -3601,19 +3601,19 @@
         <v>205152</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>187780</v>
+        <v>187516</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>220111</v>
+        <v>220813</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7142060503866919</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6537286217162787</v>
+        <v>0.6528088101517465</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7662823132369487</v>
+        <v>0.7687256415809238</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>414</v>
@@ -3622,19 +3622,19 @@
         <v>450777</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>428620</v>
+        <v>429318</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>471248</v>
+        <v>472321</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7745537709505939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7364818943657074</v>
+        <v>0.7376814359594894</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8097283582814658</v>
+        <v>0.8115720029509322</v>
       </c>
     </row>
     <row r="5">
@@ -3651,19 +3651,19 @@
         <v>32045</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22230</v>
+        <v>22356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1087249955088104</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07542339530684583</v>
+        <v>0.07584909718573313</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1514976343034259</v>
+        <v>0.1515996538123437</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -3672,19 +3672,19 @@
         <v>47571</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35672</v>
+        <v>34902</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62961</v>
+        <v>62136</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1656099788557513</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1241874411320345</v>
+        <v>0.1215047116991418</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.219188978278878</v>
+        <v>0.2163175311232525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>75</v>
@@ -3693,19 +3693,19 @@
         <v>79616</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65105</v>
+        <v>64446</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98821</v>
+        <v>98543</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1368012901532799</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1118673166931898</v>
+        <v>0.1107359976691753</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1697997904270925</v>
+        <v>0.1693235762480176</v>
       </c>
     </row>
     <row r="6">
@@ -3722,19 +3722,19 @@
         <v>17068</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10550</v>
+        <v>10335</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26206</v>
+        <v>26822</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05790771373159238</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03579403605418095</v>
+        <v>0.03506614537068084</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08891203058151967</v>
+        <v>0.0910028192031502</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -3743,19 +3743,19 @@
         <v>34522</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24846</v>
+        <v>24934</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47948</v>
+        <v>48635</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1201839707575567</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08649637627528524</v>
+        <v>0.08680463032572894</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1669222432327291</v>
+        <v>0.1693141987603336</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -3764,19 +3764,19 @@
         <v>51590</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39153</v>
+        <v>38013</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67226</v>
+        <v>67397</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08864493889612629</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06727524943728434</v>
+        <v>0.06531655463414948</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.115511260967121</v>
+        <v>0.1158065481726373</v>
       </c>
     </row>
     <row r="7">
@@ -3868,19 +3868,19 @@
         <v>430657</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>410401</v>
+        <v>410552</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>446349</v>
+        <v>446840</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8518965317649341</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8118288448250369</v>
+        <v>0.8121264218702789</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8829389800991062</v>
+        <v>0.8839090237888174</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>349</v>
@@ -3889,19 +3889,19 @@
         <v>380489</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>355499</v>
+        <v>358537</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>399806</v>
+        <v>398376</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7264507638679241</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6787380261561702</v>
+        <v>0.6845370514760417</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7633302391559305</v>
+        <v>0.7606013442220986</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>758</v>
@@ -3910,19 +3910,19 @@
         <v>811146</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>781595</v>
+        <v>782391</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>837859</v>
+        <v>834515</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7880622782293725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.759352016112891</v>
+        <v>0.760125443897277</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8140149898024847</v>
+        <v>0.8107656918883178</v>
       </c>
     </row>
     <row r="9">
@@ -3939,19 +3939,19 @@
         <v>38917</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>28119</v>
+        <v>27640</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>53963</v>
+        <v>55640</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07698216456345505</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05562223405506932</v>
+        <v>0.05467660379331049</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1067468380839341</v>
+        <v>0.1100627222570926</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>78</v>
@@ -3960,19 +3960,19 @@
         <v>84604</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>67610</v>
+        <v>69352</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>103903</v>
+        <v>102484</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1615311835299691</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1290841936297369</v>
+        <v>0.1324104923136638</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1983764607223326</v>
+        <v>0.1956686675233174</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>112</v>
@@ -3981,19 +3981,19 @@
         <v>123521</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>102462</v>
+        <v>102950</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>148244</v>
+        <v>147149</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1200057244919371</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0995465761726506</v>
+        <v>0.1000206806084765</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.14402554337396</v>
+        <v>0.1429617296035876</v>
       </c>
     </row>
     <row r="10">
@@ -4010,19 +4010,19 @@
         <v>35954</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25153</v>
+        <v>23751</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54324</v>
+        <v>51362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07112130367161082</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04975697849475986</v>
+        <v>0.04698282979471254</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1074592551339256</v>
+        <v>0.1016015881346045</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -4031,19 +4031,19 @@
         <v>58671</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45075</v>
+        <v>43811</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75045</v>
+        <v>74481</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1120180526021069</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08605996590744765</v>
+        <v>0.08364642205964538</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1432796174536007</v>
+        <v>0.1422039281020672</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -4052,19 +4052,19 @@
         <v>94625</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76104</v>
+        <v>78647</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115482</v>
+        <v>117459</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09193199727869038</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07393787629400976</v>
+        <v>0.07640914854664289</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1121950920200113</v>
+        <v>0.1141161062428041</v>
       </c>
     </row>
     <row r="11">
@@ -4156,19 +4156,19 @@
         <v>277112</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>262422</v>
+        <v>262923</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>288812</v>
+        <v>288843</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8551627127272498</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8098308248944512</v>
+        <v>0.8113769087005563</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8912670527454435</v>
+        <v>0.8913649158760971</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>245</v>
@@ -4177,19 +4177,19 @@
         <v>261340</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>245562</v>
+        <v>244651</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>276045</v>
+        <v>277799</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7663474513294758</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7200817457394879</v>
+        <v>0.7174085293572139</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8094679702665761</v>
+        <v>0.8146131164712509</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>521</v>
@@ -4198,19 +4198,19 @@
         <v>538452</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>517015</v>
+        <v>517720</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>558196</v>
+        <v>557926</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8096216976106515</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7773891682130105</v>
+        <v>0.7784484376548148</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8393096882880762</v>
+        <v>0.8389027534619482</v>
       </c>
     </row>
     <row r="13">
@@ -4227,19 +4227,19 @@
         <v>28396</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19397</v>
+        <v>18334</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39871</v>
+        <v>39824</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08762927861596501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05985936205240622</v>
+        <v>0.05657817249276009</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1230424783557017</v>
+        <v>0.1228947667811919</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -4248,19 +4248,19 @@
         <v>55700</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42952</v>
+        <v>42033</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70271</v>
+        <v>72129</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.163332705451492</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1259508434862799</v>
+        <v>0.1232552755433878</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2060613547394829</v>
+        <v>0.2115106040156773</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -4269,19 +4269,19 @@
         <v>84096</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67168</v>
+        <v>68279</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103203</v>
+        <v>103978</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1264470544310281</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1009941726762371</v>
+        <v>0.1026643438294439</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1551773400298034</v>
+        <v>0.1563430663735326</v>
       </c>
     </row>
     <row r="14">
@@ -4298,19 +4298,19 @@
         <v>18538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11020</v>
+        <v>11746</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28807</v>
+        <v>30217</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0572080086567853</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03400654170350281</v>
+        <v>0.03624687223964119</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08889930959832122</v>
+        <v>0.0932503956765839</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -4319,19 +4319,19 @@
         <v>23980</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15589</v>
+        <v>15472</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34499</v>
+        <v>33860</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07031984321903226</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04571427497451916</v>
+        <v>0.04536904838311491</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1011641068527838</v>
+        <v>0.09928977482090469</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -4340,19 +4340,19 @@
         <v>42518</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30438</v>
+        <v>31199</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54834</v>
+        <v>56727</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06393124795832035</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04576640053094901</v>
+        <v>0.04691181804630373</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08244841853566784</v>
+        <v>0.08529516774513632</v>
       </c>
     </row>
     <row r="15">
@@ -4444,19 +4444,19 @@
         <v>319149</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>305138</v>
+        <v>303861</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>332812</v>
+        <v>332419</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8533818242062671</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8159150988562708</v>
+        <v>0.8125026857755815</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8899132297060335</v>
+        <v>0.8888631120831919</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>257</v>
@@ -4465,19 +4465,19 @@
         <v>270073</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>251381</v>
+        <v>249823</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>289177</v>
+        <v>287865</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6943634145292077</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6463051614980078</v>
+        <v>0.6422986168417132</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7434786952423746</v>
+        <v>0.7401072765408042</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>552</v>
@@ -4486,19 +4486,19 @@
         <v>589223</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>564579</v>
+        <v>565811</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>613960</v>
+        <v>610940</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.77231263487409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7400110596607221</v>
+        <v>0.7416261548022607</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8047365729032713</v>
+        <v>0.8007783002655231</v>
       </c>
     </row>
     <row r="17">
@@ -4515,19 +4515,19 @@
         <v>32102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22578</v>
+        <v>22264</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45070</v>
+        <v>45406</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08583895694692527</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06037196859744908</v>
+        <v>0.05953234220803891</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1205136806823498</v>
+        <v>0.1214133579542723</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -4536,19 +4536,19 @@
         <v>61105</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47335</v>
+        <v>48149</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>76055</v>
+        <v>75641</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1571015715992981</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1216986689595124</v>
+        <v>0.1237916201846019</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1955396329571454</v>
+        <v>0.194474703034236</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>88</v>
@@ -4557,19 +4557,19 @@
         <v>93207</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75153</v>
+        <v>77024</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>112042</v>
+        <v>113607</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1221693567496384</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09850551353875894</v>
+        <v>0.1009583269717362</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1468568327537842</v>
+        <v>0.1489083848638696</v>
       </c>
     </row>
     <row r="18">
@@ -4586,19 +4586,19 @@
         <v>22730</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13688</v>
+        <v>14629</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34365</v>
+        <v>35155</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06077921884680772</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03660165031869175</v>
+        <v>0.0391169842432899</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09188976178311981</v>
+        <v>0.09400143050886371</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -4607,19 +4607,19 @@
         <v>57773</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>45311</v>
+        <v>45241</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>73633</v>
+        <v>73262</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1485350138714942</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1164947141346234</v>
+        <v>0.1163155735222087</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1893122474969316</v>
+        <v>0.1883587804824699</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>75</v>
@@ -4628,19 +4628,19 @@
         <v>80503</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>65035</v>
+        <v>64384</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>99859</v>
+        <v>99401</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1055180083762716</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08524333144826929</v>
+        <v>0.08439033592204431</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1308877135319437</v>
+        <v>0.1302875026124959</v>
       </c>
     </row>
     <row r="19">
@@ -4732,19 +4732,19 @@
         <v>177765</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>164989</v>
+        <v>166108</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>187695</v>
+        <v>188089</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8360758550906457</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7759889238475316</v>
+        <v>0.7812498094646908</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8827799041308395</v>
+        <v>0.8846332824039136</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>152</v>
@@ -4753,19 +4753,19 @@
         <v>156958</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>141844</v>
+        <v>142668</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>170377</v>
+        <v>170602</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7147758466382241</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6459483237831031</v>
+        <v>0.6496967949039678</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7758853759069387</v>
+        <v>0.7769058886253455</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>317</v>
@@ -4774,19 +4774,19 @@
         <v>334723</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>317603</v>
+        <v>316205</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>351452</v>
+        <v>350986</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7744473657949005</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7348363689060222</v>
+        <v>0.731602984920492</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8131531112463973</v>
+        <v>0.8120747429493264</v>
       </c>
     </row>
     <row r="21">
@@ -4803,19 +4803,19 @@
         <v>27299</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17940</v>
+        <v>18026</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39496</v>
+        <v>38755</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1283956862913955</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08437698369141469</v>
+        <v>0.08478302152649299</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1857583748122802</v>
+        <v>0.1822770812257734</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>40</v>
@@ -4824,19 +4824,19 @@
         <v>42065</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31597</v>
+        <v>31100</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>55006</v>
+        <v>55261</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1915587185646609</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1438920596750416</v>
+        <v>0.1416248804875981</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2504913242950715</v>
+        <v>0.2516542098296506</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>64</v>
@@ -4845,19 +4845,19 @@
         <v>69364</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>54491</v>
+        <v>54352</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>86082</v>
+        <v>85168</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1604867166878739</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1260744903116927</v>
+        <v>0.125752932131706</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1991679665306266</v>
+        <v>0.1970535975522003</v>
       </c>
     </row>
     <row r="22">
@@ -4874,19 +4874,19 @@
         <v>7554</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3333</v>
+        <v>3340</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14984</v>
+        <v>14495</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03552845861795871</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01567457143388689</v>
+        <v>0.0157093715805369</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07047229245156061</v>
+        <v>0.06817356354740871</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -4895,19 +4895,19 @@
         <v>20568</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13244</v>
+        <v>12362</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31282</v>
+        <v>30017</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09366543479711505</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0603141694045487</v>
+        <v>0.05629571393500974</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1424569345805945</v>
+        <v>0.1366936609423854</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -4916,19 +4916,19 @@
         <v>28122</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18844</v>
+        <v>19117</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40013</v>
+        <v>39878</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06506591751722564</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04359875428218075</v>
+        <v>0.0442301440151367</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09257852416364323</v>
+        <v>0.09226528857782981</v>
       </c>
     </row>
     <row r="23">
@@ -5020,19 +5020,19 @@
         <v>224147</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>210206</v>
+        <v>209706</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>236373</v>
+        <v>236015</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8181108171830718</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7672301558273098</v>
+        <v>0.7654051739030158</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8627366523812738</v>
+        <v>0.8614272713914616</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>197</v>
@@ -5041,19 +5041,19 @@
         <v>204022</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>188571</v>
+        <v>187993</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>217643</v>
+        <v>218040</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7285702500787965</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6733925103215538</v>
+        <v>0.6713307923436844</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7772106893162469</v>
+        <v>0.7786298481956097</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>411</v>
@@ -5062,19 +5062,19 @@
         <v>428169</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>406423</v>
+        <v>409011</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>446758</v>
+        <v>446861</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7728516273089845</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7335988196075443</v>
+        <v>0.7382706680801805</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8064057688958984</v>
+        <v>0.8065900499269213</v>
       </c>
     </row>
     <row r="25">
@@ -5091,19 +5091,19 @@
         <v>33199</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22799</v>
+        <v>23460</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44187</v>
+        <v>46765</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1211733740816241</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08321383193273321</v>
+        <v>0.08562622357846843</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1612784437445603</v>
+        <v>0.1706878072555011</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -5112,19 +5112,19 @@
         <v>53972</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40513</v>
+        <v>41832</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66448</v>
+        <v>67942</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1927355668465034</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1446741198688213</v>
+        <v>0.1493839643093493</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2372888503736143</v>
+        <v>0.2426218409720732</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>82</v>
@@ -5133,19 +5133,19 @@
         <v>87171</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>71954</v>
+        <v>71316</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>105963</v>
+        <v>105487</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1573452118853749</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1298774190780045</v>
+        <v>0.1287268330655957</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1912654476375312</v>
+        <v>0.1904048358072471</v>
       </c>
     </row>
     <row r="26">
@@ -5162,19 +5162,19 @@
         <v>16635</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9968</v>
+        <v>10253</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25674</v>
+        <v>25341</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06071580873530413</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03638225382355898</v>
+        <v>0.03742163496444852</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09370843940605972</v>
+        <v>0.09249311530427599</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -5183,19 +5183,19 @@
         <v>22037</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13792</v>
+        <v>14092</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32749</v>
+        <v>32323</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07869418307470004</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04925284355315934</v>
+        <v>0.05032424257664578</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1169484745928122</v>
+        <v>0.1154266995896248</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -5204,19 +5204,19 @@
         <v>38672</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>27219</v>
+        <v>27983</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>53141</v>
+        <v>52871</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06980316080564061</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04912988762805028</v>
+        <v>0.05050896231898121</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09592016951471768</v>
+        <v>0.09543331942238668</v>
       </c>
     </row>
     <row r="27">
@@ -5308,19 +5308,19 @@
         <v>582049</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>563945</v>
+        <v>562570</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>599771</v>
+        <v>598350</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8781825806633463</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8508680086403889</v>
+        <v>0.848793432321538</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9049210201933895</v>
+        <v>0.9027770808469527</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>489</v>
@@ -5329,19 +5329,19 @@
         <v>530183</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>505546</v>
+        <v>507387</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>552722</v>
+        <v>554210</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7641141631502554</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7286064714782625</v>
+        <v>0.7312597198978635</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7965983976735606</v>
+        <v>0.7987423266189601</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1032</v>
@@ -5350,19 +5350,19 @@
         <v>1112232</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1080184</v>
+        <v>1080568</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1137934</v>
+        <v>1138079</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.819842378815319</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7962196459501298</v>
+        <v>0.7965027469843735</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8387878116441183</v>
+        <v>0.8388947720624663</v>
       </c>
     </row>
     <row r="29">
@@ -5379,19 +5379,19 @@
         <v>55291</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>42434</v>
+        <v>41629</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>70810</v>
+        <v>71808</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08342130495931648</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.064023394950465</v>
+        <v>0.06280834913748419</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1068370113885577</v>
+        <v>0.1083416952273375</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>99</v>
@@ -5400,19 +5400,19 @@
         <v>107156</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>89848</v>
+        <v>89493</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>128539</v>
+        <v>128928</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1544363523805294</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.129491217255341</v>
+        <v>0.1289791742363022</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1852540876761012</v>
+        <v>0.1858143997730442</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>151</v>
@@ -5421,19 +5421,19 @@
         <v>162447</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>139120</v>
+        <v>139105</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>188339</v>
+        <v>188316</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1197418947520637</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1025471060829258</v>
+        <v>0.1025364916025059</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1388275895930067</v>
+        <v>0.1388104684171563</v>
       </c>
     </row>
     <row r="30">
@@ -5450,19 +5450,19 @@
         <v>25448</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15941</v>
+        <v>16748</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38852</v>
+        <v>38603</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03839611437733725</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02405102941552751</v>
+        <v>0.02526843870901326</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05861944647087643</v>
+        <v>0.05824348620869481</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>48</v>
@@ -5471,19 +5471,19 @@
         <v>56514</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>41236</v>
+        <v>42370</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>72653</v>
+        <v>73842</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08144948446921524</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05943036010049633</v>
+        <v>0.06106535812687488</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1047093922736446</v>
+        <v>0.1064225251730175</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>71</v>
@@ -5492,19 +5492,19 @@
         <v>81962</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>65459</v>
+        <v>64166</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>104187</v>
+        <v>102971</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06041572643261739</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04825104855790141</v>
+        <v>0.04729743635513941</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0767978114525459</v>
+        <v>0.07590156794585876</v>
       </c>
     </row>
     <row r="31">
@@ -5596,19 +5596,19 @@
         <v>668886</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>646978</v>
+        <v>646307</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>688527</v>
+        <v>686839</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8585395960737496</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8304191227508895</v>
+        <v>0.8295584705493589</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8837484004052683</v>
+        <v>0.8815826726827063</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>599</v>
@@ -5617,19 +5617,19 @@
         <v>648689</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>622629</v>
+        <v>622599</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>671378</v>
+        <v>671846</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7873839630316339</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7557525047246048</v>
+        <v>0.7557159764631087</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8149243534294497</v>
+        <v>0.8154921249060321</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1219</v>
@@ -5638,19 +5638,19 @@
         <v>1317575</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1285499</v>
+        <v>1285707</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1347247</v>
+        <v>1347352</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8219684395386391</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8019579742380054</v>
+        <v>0.8020878074801515</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8404794209099681</v>
+        <v>0.8405448476302183</v>
       </c>
     </row>
     <row r="33">
@@ -5667,19 +5667,19 @@
         <v>87386</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>70954</v>
+        <v>69311</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>107774</v>
+        <v>107525</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1121633234901361</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.09107213889386327</v>
+        <v>0.08896297041008865</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1383320281929822</v>
+        <v>0.1380125559553736</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>115</v>
@@ -5688,19 +5688,19 @@
         <v>127757</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>107479</v>
+        <v>106964</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>151036</v>
+        <v>149997</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1550720475339556</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1304592470555237</v>
+        <v>0.1298339034227557</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1833285701286932</v>
+        <v>0.1820674583324397</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>192</v>
@@ -5709,19 +5709,19 @@
         <v>215143</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>187883</v>
+        <v>187981</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>244677</v>
+        <v>244442</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1342166957480934</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1172107972328065</v>
+        <v>0.1172715264048237</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1526417648981634</v>
+        <v>0.1524950303708267</v>
       </c>
     </row>
     <row r="34">
@@ -5738,19 +5738,19 @@
         <v>22825</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>15196</v>
+        <v>15042</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>36693</v>
+        <v>35609</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02929708043611427</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01950452859868404</v>
+        <v>0.01930748890952102</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04709626435386459</v>
+        <v>0.0457052810689875</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>43</v>
@@ -5759,19 +5759,19 @@
         <v>47408</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>35180</v>
+        <v>35295</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>62643</v>
+        <v>62443</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0575439894344105</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04270125705890367</v>
+        <v>0.04284118587942719</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07603695035121273</v>
+        <v>0.07579423351900172</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>63</v>
@@ -5780,19 +5780,19 @@
         <v>70233</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>55315</v>
+        <v>55450</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>90524</v>
+        <v>89155</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04381486471326753</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03450828219488948</v>
+        <v>0.03459226010144496</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05647357744679194</v>
+        <v>0.05561959479016134</v>
       </c>
     </row>
     <row r="35">
@@ -5884,19 +5884,19 @@
         <v>2925391</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2875622</v>
+        <v>2880974</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2961907</v>
+        <v>2969553</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8536853451536438</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8391617588697323</v>
+        <v>0.8407237243171444</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.864341308183491</v>
+        <v>0.8665726521716935</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2468</v>
@@ -5905,19 +5905,19 @@
         <v>2656907</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2600204</v>
+        <v>2603222</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2706642</v>
+        <v>2711443</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7466768334462321</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7307414377319567</v>
+        <v>0.7315897250462442</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7606540928696857</v>
+        <v>0.7620032929978496</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5224</v>
@@ -5926,19 +5926,19 @@
         <v>5582298</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5511497</v>
+        <v>5512638</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5650630</v>
+        <v>5648595</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7991735963321085</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7890375531383174</v>
+        <v>0.7892009659761893</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8089561859758347</v>
+        <v>0.8086648335717308</v>
       </c>
     </row>
     <row r="37">
@@ -5955,19 +5955,19 @@
         <v>334635</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>300515</v>
+        <v>298155</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>372361</v>
+        <v>371854</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09765306863186174</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08769615342306336</v>
+        <v>0.08700726803819678</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1086621693484305</v>
+        <v>0.1085141538437821</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>535</v>
@@ -5976,19 +5976,19 @@
         <v>579929</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>533854</v>
+        <v>533667</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>628748</v>
+        <v>623666</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1629787501124609</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1500303723023245</v>
+        <v>0.1499777310556957</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1766984625079499</v>
+        <v>0.1752703141930769</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>839</v>
@@ -5997,19 +5997,19 @@
         <v>914564</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>860899</v>
+        <v>857485</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>973239</v>
+        <v>970630</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1309309554433592</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1232480988225979</v>
+        <v>0.1227593573537259</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.139330939094668</v>
+        <v>0.1389574840275274</v>
       </c>
     </row>
     <row r="38">
@@ -6026,19 +6026,19 @@
         <v>166753</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>139947</v>
+        <v>142523</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>198258</v>
+        <v>193927</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0486615862144944</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04083911670260252</v>
+        <v>0.0415908763282142</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05785562600929285</v>
+        <v>0.05659151130552153</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>295</v>
@@ -6047,19 +6047,19 @@
         <v>321473</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>289905</v>
+        <v>289126</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>360268</v>
+        <v>359955</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.09034441644130692</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08147277915992338</v>
+        <v>0.08125378539852207</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1012468537626035</v>
+        <v>0.1011589464040911</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>444</v>
@@ -6068,19 +6068,19 @@
         <v>488226</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>443609</v>
+        <v>445023</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>529265</v>
+        <v>536552</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.06989544822453232</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06350803336578636</v>
+        <v>0.06371046314701703</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0757707224691089</v>
+        <v>0.07681398712476412</v>
       </c>
     </row>
     <row r="39">
@@ -6416,19 +6416,19 @@
         <v>238656</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>223679</v>
+        <v>223685</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251881</v>
+        <v>250898</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8124141799925612</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7614303320822239</v>
+        <v>0.7614517869871184</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8574349005306162</v>
+        <v>0.8540879567772949</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>204</v>
@@ -6437,19 +6437,19 @@
         <v>207660</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>191451</v>
+        <v>190115</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>222051</v>
+        <v>221672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7192854947402288</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6631427983899343</v>
+        <v>0.6585134241968809</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7691331684831605</v>
+        <v>0.7678188191425745</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>419</v>
@@ -6458,19 +6458,19 @@
         <v>446315</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>422279</v>
+        <v>423610</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>466500</v>
+        <v>465299</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7662541928116778</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7249878592862479</v>
+        <v>0.7272721402510742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8009077592557232</v>
+        <v>0.7988454071866432</v>
       </c>
     </row>
     <row r="5">
@@ -6487,19 +6487,19 @@
         <v>36857</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26182</v>
+        <v>26448</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50238</v>
+        <v>50276</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1254657833376021</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08912553073850653</v>
+        <v>0.09003231921196873</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1710182623346503</v>
+        <v>0.1711449037284169</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -6508,19 +6508,19 @@
         <v>40521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29194</v>
+        <v>29891</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54026</v>
+        <v>56465</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1403554732843555</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1011226362641584</v>
+        <v>0.1035337379324762</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1871323855959914</v>
+        <v>0.195581386969524</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -6529,19 +6529,19 @@
         <v>77378</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>60786</v>
+        <v>61795</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>95312</v>
+        <v>95824</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.132845978765114</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1043598731210345</v>
+        <v>0.1060931610905706</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1636356732393075</v>
+        <v>0.1645142551658767</v>
       </c>
     </row>
     <row r="6">
@@ -6558,19 +6558,19 @@
         <v>18248</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11240</v>
+        <v>11874</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27825</v>
+        <v>28679</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06212003666983681</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03826094255007078</v>
+        <v>0.04041939072342304</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09471864173901101</v>
+        <v>0.09762744816531864</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -6579,19 +6579,19 @@
         <v>40522</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30057</v>
+        <v>29332</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>53012</v>
+        <v>53635</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1403590319754157</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.104109986045967</v>
+        <v>0.101599586368869</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1836201385028397</v>
+        <v>0.1857802532191523</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -6600,19 +6600,19 @@
         <v>58771</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>45201</v>
+        <v>44407</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>75552</v>
+        <v>75530</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1008998284232081</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07760345440248126</v>
+        <v>0.07623986121321498</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1297108673473612</v>
+        <v>0.1296739022618262</v>
       </c>
     </row>
     <row r="7">
@@ -6704,19 +6704,19 @@
         <v>442015</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>425239</v>
+        <v>425468</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>454730</v>
+        <v>455895</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.879499837505386</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8461197418305695</v>
+        <v>0.8465762982820477</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9047999222975094</v>
+        <v>0.9071185527666398</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>392</v>
@@ -6725,19 +6725,19 @@
         <v>413041</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>392414</v>
+        <v>392444</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>431518</v>
+        <v>432898</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7896264598611524</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7501935586347216</v>
+        <v>0.7502508012116906</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8249489913968423</v>
+        <v>0.8275881056814108</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>808</v>
@@ -6746,19 +6746,19 @@
         <v>855056</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>829197</v>
+        <v>828482</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>879849</v>
+        <v>878147</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.833664614199801</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8084532051827191</v>
+        <v>0.8077556243783914</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8578377558364785</v>
+        <v>0.8561782851805918</v>
       </c>
     </row>
     <row r="9">
@@ -6775,19 +6775,19 @@
         <v>42036</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31023</v>
+        <v>30611</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>56672</v>
+        <v>57364</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0836418809528071</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0617287553893761</v>
+        <v>0.06090763068159794</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1127640186300052</v>
+        <v>0.1141394748722174</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>58</v>
@@ -6796,19 +6796,19 @@
         <v>69492</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>55238</v>
+        <v>53296</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>89198</v>
+        <v>85948</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1328504188509252</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1056010643665399</v>
+        <v>0.1018886555650915</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1705237645821838</v>
+        <v>0.1643110405397424</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>98</v>
@@ -6817,19 +6817,19 @@
         <v>111528</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>89496</v>
+        <v>93669</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>132187</v>
+        <v>136529</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1087381261615939</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08725705290762924</v>
+        <v>0.09132607147628381</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1288797404781483</v>
+        <v>0.1331130138650208</v>
       </c>
     </row>
     <row r="10">
@@ -6846,19 +6846,19 @@
         <v>18524</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11317</v>
+        <v>11966</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27734</v>
+        <v>27804</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03685828154180695</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02251766706950955</v>
+        <v>0.02381006486058311</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05518297535862569</v>
+        <v>0.05532395710414059</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -6867,19 +6867,19 @@
         <v>40551</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27507</v>
+        <v>29290</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54154</v>
+        <v>55170</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07752312128792237</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05258558850348474</v>
+        <v>0.05599482461494617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1035278109871059</v>
+        <v>0.1054714905394245</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -6888,19 +6888,19 @@
         <v>59075</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44284</v>
+        <v>45485</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76322</v>
+        <v>76693</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05759725963860509</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04317612258681267</v>
+        <v>0.04434742766870869</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07441239434812752</v>
+        <v>0.07477399292991506</v>
       </c>
     </row>
     <row r="11">
@@ -6992,19 +6992,19 @@
         <v>275688</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>262547</v>
+        <v>261988</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>286973</v>
+        <v>284904</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8654060078803363</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8241540637936069</v>
+        <v>0.8224002054739028</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9008293682933401</v>
+        <v>0.8943366371986696</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>274</v>
@@ -7013,19 +7013,19 @@
         <v>269769</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>254240</v>
+        <v>252595</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>285514</v>
+        <v>283472</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8021449684384002</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.755972168673799</v>
+        <v>0.7510788539157216</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8489646842128837</v>
+        <v>0.8428926012024791</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>560</v>
@@ -7034,19 +7034,19 @@
         <v>545457</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>523042</v>
+        <v>525230</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>562807</v>
+        <v>563544</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8329184498875039</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7986911388796695</v>
+        <v>0.8020328511103042</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8594130736736173</v>
+        <v>0.8605384716354876</v>
       </c>
     </row>
     <row r="13">
@@ -7063,19 +7063,19 @@
         <v>37462</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27568</v>
+        <v>28247</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50289</v>
+        <v>49879</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1175964376933025</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08653776459782224</v>
+        <v>0.08866910513512165</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1578599047569862</v>
+        <v>0.1565741369991149</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -7084,19 +7084,19 @@
         <v>50455</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37066</v>
+        <v>37756</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65386</v>
+        <v>66856</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1500263180070814</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1102127320517614</v>
+        <v>0.1122672345625581</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1944209637748555</v>
+        <v>0.1987919451668129</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -7105,19 +7105,19 @@
         <v>87917</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72679</v>
+        <v>72086</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107166</v>
+        <v>105530</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1342507264417749</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1109817563438321</v>
+        <v>0.110076683244813</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1636436875753087</v>
+        <v>0.1611450321071424</v>
       </c>
     </row>
     <row r="14">
@@ -7134,19 +7134,19 @@
         <v>5415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1813</v>
+        <v>2034</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11356</v>
+        <v>11434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01699755442636127</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005691581026956716</v>
+        <v>0.00638599382280907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03564760733103069</v>
+        <v>0.03589369823349794</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -7155,19 +7155,19 @@
         <v>16085</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9064</v>
+        <v>9081</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26447</v>
+        <v>26900</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04782871355451837</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02695060214210027</v>
+        <v>0.02700205182348287</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07863892822158293</v>
+        <v>0.0799870839749915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -7176,19 +7176,19 @@
         <v>21500</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13528</v>
+        <v>13264</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32931</v>
+        <v>32689</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03283082367072121</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02065703037007407</v>
+        <v>0.0202540776170137</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05028573616850169</v>
+        <v>0.04991621652713232</v>
       </c>
     </row>
     <row r="15">
@@ -7280,19 +7280,19 @@
         <v>317313</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>302341</v>
+        <v>302975</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>329717</v>
+        <v>330228</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8576863046482932</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8172168395453923</v>
+        <v>0.8189322328734279</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8912148695273125</v>
+        <v>0.8925956135820405</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>271</v>
@@ -7301,19 +7301,19 @@
         <v>285945</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>267210</v>
+        <v>265873</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>303075</v>
+        <v>302095</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7383366187477294</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.689961621380937</v>
+        <v>0.6865084008713194</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7825684275744823</v>
+        <v>0.7800373590861779</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>572</v>
@@ -7322,19 +7322,19 @@
         <v>603258</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>580493</v>
+        <v>577299</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>625650</v>
+        <v>624342</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7966466378485376</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.766583419627615</v>
+        <v>0.7623658854061552</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8262161002541384</v>
+        <v>0.8244897793899171</v>
       </c>
     </row>
     <row r="17">
@@ -7351,19 +7351,19 @@
         <v>21190</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13818</v>
+        <v>13495</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32946</v>
+        <v>31428</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05727689743508937</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03734981433334759</v>
+        <v>0.03647735819957864</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08905117584824145</v>
+        <v>0.08494868654339231</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -7372,19 +7372,19 @@
         <v>51624</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38639</v>
+        <v>38689</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66337</v>
+        <v>67606</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1332970216263755</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09977006968650105</v>
+        <v>0.09989822289345766</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1712889992533959</v>
+        <v>0.1745660157922879</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>67</v>
@@ -7393,19 +7393,19 @@
         <v>72814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>58256</v>
+        <v>55784</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>90365</v>
+        <v>89873</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09615628798981746</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07693176861315072</v>
+        <v>0.07366703539707058</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1193333963261949</v>
+        <v>0.1186840130328485</v>
       </c>
     </row>
     <row r="18">
@@ -7422,19 +7422,19 @@
         <v>31461</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22588</v>
+        <v>21364</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43353</v>
+        <v>42296</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08503679791661739</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06105524752406303</v>
+        <v>0.05774501898971906</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1171817050756774</v>
+        <v>0.1143247760448895</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -7443,19 +7443,19 @@
         <v>49714</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36590</v>
+        <v>36214</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>64472</v>
+        <v>64881</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1283663596258951</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09447812803567653</v>
+        <v>0.09350785699691713</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1664725472359604</v>
+        <v>0.1675280791898767</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>73</v>
@@ -7464,19 +7464,19 @@
         <v>81175</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>64619</v>
+        <v>65636</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>101473</v>
+        <v>101761</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1071970741616449</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08533360932365688</v>
+        <v>0.08667714998243012</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1340026120711733</v>
+        <v>0.1343823016507498</v>
       </c>
     </row>
     <row r="19">
@@ -7568,19 +7568,19 @@
         <v>184478</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>174336</v>
+        <v>174183</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>192663</v>
+        <v>193113</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8733886298310526</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8253732718604745</v>
+        <v>0.8246467553981687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9121412611890861</v>
+        <v>0.9142676686576989</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>177</v>
@@ -7589,19 +7589,19 @@
         <v>169902</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>156495</v>
+        <v>157054</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>182640</v>
+        <v>181323</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7772761924384626</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7159377759869074</v>
+        <v>0.7184953830818301</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8355501777069526</v>
+        <v>0.8295240967407965</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>361</v>
@@ -7610,19 +7610,19 @@
         <v>354380</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>339253</v>
+        <v>335089</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>369736</v>
+        <v>368272</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8245088289956918</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7893122783453544</v>
+        <v>0.77962369647774</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8602353563374388</v>
+        <v>0.8568293545649737</v>
       </c>
     </row>
     <row r="21">
@@ -7639,19 +7639,19 @@
         <v>21199</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14013</v>
+        <v>14299</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29640</v>
+        <v>31393</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1003634296944292</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06634172155141604</v>
+        <v>0.06769790003433236</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1403264013001828</v>
+        <v>0.1486255294748809</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>37</v>
@@ -7660,19 +7660,19 @@
         <v>38977</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28336</v>
+        <v>29222</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>51408</v>
+        <v>51551</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1783126966978018</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1296308970773387</v>
+        <v>0.1336854749445636</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2351821777093228</v>
+        <v>0.2358352920330268</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>60</v>
@@ -7681,19 +7681,19 @@
         <v>60176</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>46438</v>
+        <v>47043</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>73970</v>
+        <v>76850</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1400060061366845</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1080425211636035</v>
+        <v>0.1094521705324716</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1720999879698203</v>
+        <v>0.1788006494776459</v>
       </c>
     </row>
     <row r="22">
@@ -7710,19 +7710,19 @@
         <v>5544</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1902</v>
+        <v>1851</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12696</v>
+        <v>13776</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02624794047451819</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009005117965822323</v>
+        <v>0.00876368347878707</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06010538271702528</v>
+        <v>0.0652224978364722</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -7731,19 +7731,19 @@
         <v>9708</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4691</v>
+        <v>5043</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17272</v>
+        <v>17930</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04441111086373556</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02145941655462894</v>
+        <v>0.02307147735829026</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07901871774268064</v>
+        <v>0.0820252855030993</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -7752,19 +7752,19 @@
         <v>15252</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8587</v>
+        <v>8668</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25099</v>
+        <v>25208</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03548516486762381</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01997904929263025</v>
+        <v>0.02016622194391364</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05839588341039968</v>
+        <v>0.0586493025724903</v>
       </c>
     </row>
     <row r="23">
@@ -7856,19 +7856,19 @@
         <v>209378</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>195592</v>
+        <v>194847</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>222192</v>
+        <v>221832</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7957434512790946</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7433484771013764</v>
+        <v>0.7405181920962273</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8444425164337499</v>
+        <v>0.8430717996335705</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>187</v>
@@ -7877,19 +7877,19 @@
         <v>188260</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>172068</v>
+        <v>171631</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>202578</v>
+        <v>205066</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6893062293172244</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6300199363076494</v>
+        <v>0.6284199731838842</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7417304320529461</v>
+        <v>0.7508406490000862</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>391</v>
@@ -7898,19 +7898,19 @@
         <v>397638</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>374730</v>
+        <v>376921</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>417034</v>
+        <v>416616</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.741533190269507</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6988124664211703</v>
+        <v>0.7028995652849997</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7777038234229281</v>
+        <v>0.7769243232267512</v>
       </c>
     </row>
     <row r="25">
@@ -7927,19 +7927,19 @@
         <v>25092</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17187</v>
+        <v>16999</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35247</v>
+        <v>36582</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09536409835236268</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06531741445811792</v>
+        <v>0.06460454821594216</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1339561802370497</v>
+        <v>0.1390304324419927</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -7948,19 +7948,19 @@
         <v>47781</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36523</v>
+        <v>35712</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61474</v>
+        <v>61631</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.17494942235612</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1337280287199925</v>
+        <v>0.1307570338885811</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2250863027431177</v>
+        <v>0.2256588113096589</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -7969,19 +7969,19 @@
         <v>72874</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>57456</v>
+        <v>57768</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>89711</v>
+        <v>90123</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1358982376999852</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1071459798722584</v>
+        <v>0.1077282222539743</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1672965413556871</v>
+        <v>0.1680661871101554</v>
       </c>
     </row>
     <row r="26">
@@ -7998,19 +7998,19 @@
         <v>28652</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19095</v>
+        <v>19514</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>39367</v>
+        <v>40173</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1088924503685427</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0725706193842756</v>
+        <v>0.0741643813505707</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1496135788419796</v>
+        <v>0.1526776971737593</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>31</v>
@@ -8019,19 +8019,19 @@
         <v>37074</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26163</v>
+        <v>25158</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>50475</v>
+        <v>51222</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1357443483266556</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09579445384804224</v>
+        <v>0.09211533987755617</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1848134276240314</v>
+        <v>0.1875465887783621</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>61</v>
@@ -8040,19 +8040,19 @@
         <v>65726</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>50879</v>
+        <v>50153</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>83490</v>
+        <v>80992</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1225685720305077</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09488046110247836</v>
+        <v>0.09352798498146608</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.155695880169865</v>
+        <v>0.1510367384596488</v>
       </c>
     </row>
     <row r="27">
@@ -8144,19 +8144,19 @@
         <v>568283</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>547306</v>
+        <v>548601</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>584750</v>
+        <v>585399</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8655495169327724</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8335982900709914</v>
+        <v>0.8355720259606564</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8906294652250684</v>
+        <v>0.8916176899127379</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>518</v>
@@ -8165,19 +8165,19 @@
         <v>543914</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>520026</v>
+        <v>520044</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>565308</v>
+        <v>565159</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7868057813068806</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7522500393369587</v>
+        <v>0.7522762411053464</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.81775348621671</v>
+        <v>0.8175379461057165</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1016</v>
@@ -8186,19 +8186,19 @@
         <v>1112198</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1080660</v>
+        <v>1082251</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1140103</v>
+        <v>1140972</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.825162981829459</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8017648655239966</v>
+        <v>0.8029451258366016</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8458664698411947</v>
+        <v>0.8465110060399808</v>
       </c>
     </row>
     <row r="29">
@@ -8215,19 +8215,19 @@
         <v>68457</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>53252</v>
+        <v>55168</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>88383</v>
+        <v>88056</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1042668517006085</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08110814132197669</v>
+        <v>0.08402593702219467</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1346153939350594</v>
+        <v>0.1341179005741879</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>70</v>
@@ -8236,19 +8236,19 @@
         <v>79554</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>62947</v>
+        <v>64371</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>97104</v>
+        <v>99513</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1150797467347654</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09105711330814112</v>
+        <v>0.09311710161345743</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1404671681455173</v>
+        <v>0.1439517687340472</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>133</v>
@@ -8257,19 +8257,19 @@
         <v>148011</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>126580</v>
+        <v>124836</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>174154</v>
+        <v>174227</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1098126308206155</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09391205104552661</v>
+        <v>0.09261810805011729</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.129208775817614</v>
+        <v>0.1292630575713933</v>
       </c>
     </row>
     <row r="30">
@@ -8286,19 +8286,19 @@
         <v>19817</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11996</v>
+        <v>12731</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31224</v>
+        <v>31413</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03018363136661912</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01827155723858412</v>
+        <v>0.01939106537326252</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04755733823379807</v>
+        <v>0.04784540350568198</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>58</v>
@@ -8307,19 +8307,19 @@
         <v>67826</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>52136</v>
+        <v>53182</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>87155</v>
+        <v>86643</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09811447195835397</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07541823488351711</v>
+        <v>0.07693045341943507</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1260751028633597</v>
+        <v>0.1253351054643765</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>77</v>
@@ -8328,19 +8328,19 @@
         <v>87643</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>68491</v>
+        <v>70317</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>107525</v>
+        <v>108707</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06502438734992548</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.050814588045469</v>
+        <v>0.05216999969885625</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07977504217408292</v>
+        <v>0.08065222009929178</v>
       </c>
     </row>
     <row r="31">
@@ -8432,19 +8432,19 @@
         <v>688112</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>669882</v>
+        <v>668097</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>704394</v>
+        <v>704999</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8838001760897064</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8603863807036134</v>
+        <v>0.8580935659432917</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9047129844867028</v>
+        <v>0.9054897694302473</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>618</v>
@@ -8453,19 +8453,19 @@
         <v>664040</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>640847</v>
+        <v>636281</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>689551</v>
+        <v>687180</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8037603599665195</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7756872640691499</v>
+        <v>0.7701598324206433</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8346388676139622</v>
+        <v>0.831769373243548</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1277</v>
@@ -8474,19 +8474,19 @@
         <v>1352152</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1319979</v>
+        <v>1322743</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1380403</v>
+        <v>1382975</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8425935987558018</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8225446473322726</v>
+        <v>0.8242674921835852</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8601978555474036</v>
+        <v>0.8618006230695209</v>
       </c>
     </row>
     <row r="33">
@@ -8503,19 +8503,19 @@
         <v>71857</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>56742</v>
+        <v>56189</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>88785</v>
+        <v>90629</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09229206092423803</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07287869298019252</v>
+        <v>0.07216838647853106</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1140341582966397</v>
+        <v>0.116402323112373</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>107</v>
@@ -8524,19 +8524,19 @@
         <v>124222</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>103359</v>
+        <v>103256</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>146038</v>
+        <v>147047</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1503592386133359</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1251065398324385</v>
+        <v>0.124982574469771</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1767656212933017</v>
+        <v>0.1779867047662257</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>179</v>
@@ -8545,19 +8545,19 @@
         <v>196079</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>170291</v>
+        <v>169737</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>222677</v>
+        <v>224297</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1221865529895969</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1061171077834129</v>
+        <v>0.1057713416476951</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1387609057230604</v>
+        <v>0.1397709832126655</v>
       </c>
     </row>
     <row r="34">
@@ -8574,19 +8574,19 @@
         <v>18614</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11583</v>
+        <v>11527</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>29092</v>
+        <v>29643</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02390776298605554</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01487754914490639</v>
+        <v>0.01480564612943579</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03736498776751728</v>
+        <v>0.03807311336989052</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>30</v>
@@ -8595,19 +8595,19 @@
         <v>37905</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>26043</v>
+        <v>26074</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>53417</v>
+        <v>51983</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04588040142014455</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0315232509829247</v>
+        <v>0.03156034834292828</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06465701411204144</v>
+        <v>0.06292046272989871</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>49</v>
@@ -8616,19 +8616,19 @@
         <v>56519</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>42583</v>
+        <v>43007</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>71886</v>
+        <v>73916</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03521984825460129</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02653545251742451</v>
+        <v>0.0267995024395412</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04479577267686947</v>
+        <v>0.04606068495565389</v>
       </c>
     </row>
     <row r="35">
@@ -8720,19 +8720,19 @@
         <v>2923923</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2881449</v>
+        <v>2882279</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2960260</v>
+        <v>2964968</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8614088224474096</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8488957117821931</v>
+        <v>0.8491401314221548</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8721139316969239</v>
+        <v>0.8735009014708032</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2641</v>
@@ -8741,19 +8741,19 @@
         <v>2742531</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2690789</v>
+        <v>2688068</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2789633</v>
+        <v>2796283</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7737336398953086</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7591359368620306</v>
+        <v>0.7583683574289157</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.787022255908826</v>
+        <v>0.7888983675666138</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5404</v>
@@ -8762,19 +8762,19 @@
         <v>5666454</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5595993</v>
+        <v>5603454</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5736385</v>
+        <v>5735959</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8166223707340134</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8064677812794516</v>
+        <v>0.8075429938781596</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8267004710901559</v>
+        <v>0.826638991550334</v>
       </c>
     </row>
     <row r="37">
@@ -8791,19 +8791,19 @@
         <v>324151</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>292112</v>
+        <v>292444</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>361475</v>
+        <v>358853</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09549733647288013</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08605840104205169</v>
+        <v>0.08615605279553136</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1064931537803179</v>
+        <v>0.1057206718693499</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>444</v>
@@ -8812,19 +8812,19 @@
         <v>502626</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>462711</v>
+        <v>461018</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>549005</v>
+        <v>547674</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.141802741936243</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1305416902830919</v>
+        <v>0.1300642994868698</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1548874124135569</v>
+        <v>0.1545120308350406</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>763</v>
@@ -8833,19 +8833,19 @@
         <v>826777</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>769895</v>
+        <v>770709</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>887151</v>
+        <v>878519</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1191511772233313</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1109536514264551</v>
+        <v>0.1110708648108429</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1278520132473278</v>
+        <v>0.126607893727523</v>
       </c>
     </row>
     <row r="38">
@@ -8862,19 +8862,19 @@
         <v>146276</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>124405</v>
+        <v>123680</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>169781</v>
+        <v>169828</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04309384107971034</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03665063259676628</v>
+        <v>0.03643694202985968</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05001882619923256</v>
+        <v>0.05003257262477606</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>253</v>
@@ -8883,19 +8883,19 @@
         <v>299385</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>264394</v>
+        <v>264103</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>337303</v>
+        <v>339180</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08446361816844832</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07459193099603544</v>
+        <v>0.07450982181971946</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.09516124163478687</v>
+        <v>0.09569080527141885</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>402</v>
@@ -8904,19 +8904,19 @@
         <v>445660</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>405465</v>
+        <v>406723</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>488172</v>
+        <v>486356</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.06422645204265523</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05843369448740129</v>
+        <v>0.05861491883040373</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.07035308773017297</v>
+        <v>0.07009130105702302</v>
       </c>
     </row>
     <row r="39">
@@ -9252,19 +9252,19 @@
         <v>271406</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>259403</v>
+        <v>257833</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>282329</v>
+        <v>282274</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8512147629496138</v>
+        <v>0.851214762949614</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.813571882696336</v>
+        <v>0.808646520234223</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8854731069087679</v>
+        <v>0.8853005563527105</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>423</v>
@@ -9273,19 +9273,19 @@
         <v>258358</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>248145</v>
+        <v>247324</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>267977</v>
+        <v>267945</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8174309124642907</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7851163922139763</v>
+        <v>0.7825211061897944</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8478663663406315</v>
+        <v>0.8477621057753825</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>695</v>
@@ -9294,19 +9294,19 @@
         <v>529764</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>514707</v>
+        <v>514098</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>542976</v>
+        <v>544851</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8343969241143318</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8106815236927433</v>
+        <v>0.8097232194560203</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8552075802163802</v>
+        <v>0.8581607187412066</v>
       </c>
     </row>
     <row r="5">
@@ -9323,19 +9323,19 @@
         <v>42302</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32118</v>
+        <v>32026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54742</v>
+        <v>55376</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1326725499073175</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1007307695958685</v>
+        <v>0.1004444081049276</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1716898431030658</v>
+        <v>0.17367709340009</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -9344,19 +9344,19 @@
         <v>46323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37586</v>
+        <v>37672</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>56059</v>
+        <v>56674</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1465627946775835</v>
+        <v>0.1465627946775834</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1189203348361512</v>
+        <v>0.1191917439104186</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1773687433263095</v>
+        <v>0.1793120650238271</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>146</v>
@@ -9365,19 +9365,19 @@
         <v>88625</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>76226</v>
+        <v>76324</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>104895</v>
+        <v>104423</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1395872116339446</v>
+        <v>0.1395872116339445</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1200582979692888</v>
+        <v>0.1202124582770457</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1652131525442321</v>
+        <v>0.1644697993878199</v>
       </c>
     </row>
     <row r="6">
@@ -9394,19 +9394,19 @@
         <v>5137</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2193</v>
+        <v>2144</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10262</v>
+        <v>10337</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01611268714306855</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006877498121210288</v>
+        <v>0.006723088612119448</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03218374710537373</v>
+        <v>0.03242122225965671</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -9415,19 +9415,19 @@
         <v>11380</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7503</v>
+        <v>7127</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17836</v>
+        <v>17022</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03600629285812593</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0237391148295865</v>
+        <v>0.02254788563430464</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05643159446046925</v>
+        <v>0.05385708086314194</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -9436,19 +9436,19 @@
         <v>16518</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10557</v>
+        <v>11291</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23631</v>
+        <v>24152</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02601586425172379</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01662815248808867</v>
+        <v>0.01778337733318317</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03722044854131326</v>
+        <v>0.0380401052641355</v>
       </c>
     </row>
     <row r="7">
@@ -9540,19 +9540,19 @@
         <v>445025</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>425710</v>
+        <v>424846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>463334</v>
+        <v>460512</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8386460675481219</v>
+        <v>0.838646067548122</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8022468008408674</v>
+        <v>0.8006193105904217</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8731499968641765</v>
+        <v>0.8678306567382643</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>517</v>
@@ -9561,19 +9561,19 @@
         <v>418313</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>401104</v>
+        <v>401750</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>433955</v>
+        <v>434447</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7654489913033599</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7339588987834396</v>
+        <v>0.7351409181032073</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7940704182051169</v>
+        <v>0.7949712402246704</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>820</v>
@@ -9582,19 +9582,19 @@
         <v>863338</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>836516</v>
+        <v>837268</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>886753</v>
+        <v>887103</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8015090769019957</v>
+        <v>0.8015090769019959</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7766074072552862</v>
+        <v>0.7773056269013294</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8232468939450168</v>
+        <v>0.8235717573163458</v>
       </c>
     </row>
     <row r="9">
@@ -9611,19 +9611,19 @@
         <v>67949</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>51687</v>
+        <v>54014</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>86586</v>
+        <v>85137</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1280488667878026</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09740388488485656</v>
+        <v>0.1017897065233188</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1631701217762511</v>
+        <v>0.1604402526101698</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>134</v>
@@ -9632,19 +9632,19 @@
         <v>85681</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>72936</v>
+        <v>72326</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>99802</v>
+        <v>99075</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1567838546749404</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1334621338699523</v>
+        <v>0.132344967137683</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1826214525427893</v>
+        <v>0.1812911630454183</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>197</v>
@@ -9653,19 +9653,19 @@
         <v>153630</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>134516</v>
+        <v>133325</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>178002</v>
+        <v>175576</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1426277411244336</v>
+        <v>0.1426277411244337</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1248824133023274</v>
+        <v>0.123777101522756</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1652545308747816</v>
+        <v>0.1630021778348944</v>
       </c>
     </row>
     <row r="10">
@@ -9682,19 +9682,19 @@
         <v>17673</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10345</v>
+        <v>10387</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28355</v>
+        <v>27509</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03330506566407535</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01949532369628241</v>
+        <v>0.01957487538739676</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05343514803664615</v>
+        <v>0.05184113426319528</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -9703,19 +9703,19 @@
         <v>42499</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32908</v>
+        <v>33613</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53234</v>
+        <v>52850</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07776715402169966</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06021652812073715</v>
+        <v>0.06150699904809825</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09741073860500356</v>
+        <v>0.09670685084265578</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -9724,19 +9724,19 @@
         <v>60173</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47251</v>
+        <v>47735</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74294</v>
+        <v>74947</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05586318197357056</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04386717084664755</v>
+        <v>0.04431630468522924</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06897343500725632</v>
+        <v>0.06957955363214213</v>
       </c>
     </row>
     <row r="11">
@@ -9828,19 +9828,19 @@
         <v>275813</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>264869</v>
+        <v>264789</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>285041</v>
+        <v>284858</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8728454761349013</v>
+        <v>0.8728454761349015</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8382113077525098</v>
+        <v>0.837957027532548</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9020494093560042</v>
+        <v>0.9014707706308532</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>408</v>
@@ -9849,19 +9849,19 @@
         <v>286633</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>275316</v>
+        <v>274672</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>297680</v>
+        <v>297483</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8042885078130273</v>
+        <v>0.8042885078130272</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7725326391633344</v>
+        <v>0.7707259593594997</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8352870466323689</v>
+        <v>0.8347339231017236</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>708</v>
@@ -9870,19 +9870,19 @@
         <v>562447</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>546540</v>
+        <v>546684</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>578900</v>
+        <v>576666</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.836507967061727</v>
+        <v>0.8365079670617267</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8128506655021083</v>
+        <v>0.8130636075386327</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8609783784567382</v>
+        <v>0.8576546051054627</v>
       </c>
     </row>
     <row r="13">
@@ -9899,19 +9899,19 @@
         <v>15293</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9636</v>
+        <v>9803</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22462</v>
+        <v>23379</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0483959046966989</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03049362523769609</v>
+        <v>0.03102346672198565</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07108277711682999</v>
+        <v>0.07398606696499697</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -9920,19 +9920,19 @@
         <v>37798</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29879</v>
+        <v>29568</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47218</v>
+        <v>46390</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1060619134980626</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08384029892056682</v>
+        <v>0.08296702875135459</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1324918630530705</v>
+        <v>0.1301706152397432</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>90</v>
@@ -9941,19 +9941,19 @@
         <v>53091</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41684</v>
+        <v>43096</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64360</v>
+        <v>64464</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07896083732608904</v>
+        <v>0.07896083732608902</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06199547153234259</v>
+        <v>0.06409550422136548</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09572016163376518</v>
+        <v>0.09587446194810839</v>
       </c>
     </row>
     <row r="14">
@@ -9970,19 +9970,19 @@
         <v>24887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17281</v>
+        <v>17678</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33374</v>
+        <v>32973</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07875861916839978</v>
+        <v>0.07875861916839977</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05468886160635592</v>
+        <v>0.05594449824843796</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.10561676446586</v>
+        <v>0.1043486774720636</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -9991,19 +9991,19 @@
         <v>31949</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25024</v>
+        <v>24219</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40965</v>
+        <v>40739</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08964957868891014</v>
+        <v>0.08964957868891013</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07021837844109341</v>
+        <v>0.06795873185012931</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1149472970957907</v>
+        <v>0.1143130371573369</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>98</v>
@@ -10012,19 +10012,19 @@
         <v>56837</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47264</v>
+        <v>46090</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>69707</v>
+        <v>68097</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.08453119561218415</v>
+        <v>0.08453119561218414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07029448369060658</v>
+        <v>0.06854774027125082</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1036723475908018</v>
+        <v>0.1012781348097838</v>
       </c>
     </row>
     <row r="15">
@@ -10116,19 +10116,19 @@
         <v>306812</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>286003</v>
+        <v>286945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>320393</v>
+        <v>321882</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8222332843104172</v>
+        <v>0.8222332843104174</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7664667795843793</v>
+        <v>0.7689916814467118</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8586276034409628</v>
+        <v>0.862620088274156</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>411</v>
@@ -10137,19 +10137,19 @@
         <v>328763</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>314147</v>
+        <v>314329</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>342591</v>
+        <v>341494</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7791304151598009</v>
+        <v>0.779130415159801</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7444927957643098</v>
+        <v>0.7449238970680475</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8119016724615914</v>
+        <v>0.8093023616835221</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>636</v>
@@ -10158,19 +10158,19 @@
         <v>635576</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>613125</v>
+        <v>612042</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>655492</v>
+        <v>656683</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7993586828906504</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7711228234610135</v>
+        <v>0.7697603160932153</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8244072856544584</v>
+        <v>0.8259047790766998</v>
       </c>
     </row>
     <row r="17">
@@ -10187,19 +10187,19 @@
         <v>36530</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25901</v>
+        <v>25203</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52852</v>
+        <v>50933</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.097896796251842</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0694123075602712</v>
+        <v>0.06754153291603036</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1416393800536533</v>
+        <v>0.136496124350899</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>128</v>
@@ -10208,19 +10208,19 @@
         <v>65422</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53863</v>
+        <v>54632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78161</v>
+        <v>77767</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1550424341066462</v>
+        <v>0.1550424341066463</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1276493302758615</v>
+        <v>0.1294712656879022</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.18523358981491</v>
+        <v>0.1842979528386131</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>167</v>
@@ -10229,19 +10229,19 @@
         <v>101952</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>84210</v>
+        <v>86678</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>120933</v>
+        <v>121091</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1282238652977386</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.105910126915884</v>
+        <v>0.1090136465655101</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1520964989049551</v>
+        <v>0.1522948743499062</v>
       </c>
     </row>
     <row r="18">
@@ -10258,19 +10258,19 @@
         <v>29803</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19816</v>
+        <v>19399</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45127</v>
+        <v>46058</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0798699194377408</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05310567254663622</v>
+        <v>0.05198655017820927</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1209376908316269</v>
+        <v>0.1234331276121953</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -10279,19 +10279,19 @@
         <v>27776</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20638</v>
+        <v>22016</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35645</v>
+        <v>36642</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.0658271507335528</v>
+        <v>0.06582715073355283</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04891086789431075</v>
+        <v>0.05217572686779213</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08447483763376649</v>
+        <v>0.08683853875132401</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>88</v>
@@ -10300,19 +10300,19 @@
         <v>57580</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45999</v>
+        <v>44932</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>73848</v>
+        <v>73313</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.07241745181161102</v>
+        <v>0.07241745181161101</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0578521607336735</v>
+        <v>0.05651005473636336</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09287787024819974</v>
+        <v>0.09220479765465543</v>
       </c>
     </row>
     <row r="19">
@@ -10404,19 +10404,19 @@
         <v>182486</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>175010</v>
+        <v>174780</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>189100</v>
+        <v>189149</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8872976018973816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8509450624947235</v>
+        <v>0.8498301587235537</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9194576632489416</v>
+        <v>0.9196953530029933</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>360</v>
@@ -10425,19 +10425,19 @@
         <v>175941</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>166466</v>
+        <v>167306</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>183212</v>
+        <v>184392</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7707219384626227</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7292155739096692</v>
+        <v>0.7328968785525154</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8025719881843318</v>
+        <v>0.8077405218362902</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>599</v>
@@ -10446,19 +10446,19 @@
         <v>358427</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>347164</v>
+        <v>347524</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>369100</v>
+        <v>369383</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8259718978783064</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8000168140059376</v>
+        <v>0.8008463797969099</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8505672637078275</v>
+        <v>0.851218255854558</v>
       </c>
     </row>
     <row r="21">
@@ -10475,19 +10475,19 @@
         <v>18591</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12671</v>
+        <v>12432</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25263</v>
+        <v>25469</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09039388949932639</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0616089069363538</v>
+        <v>0.0604493530231102</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.12283586629323</v>
+        <v>0.1238379594817209</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>106</v>
@@ -10496,19 +10496,19 @@
         <v>41027</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>34112</v>
+        <v>33836</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>49301</v>
+        <v>49431</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1797203636582838</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1494314441581094</v>
+        <v>0.1482209511842469</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.215967852654752</v>
+        <v>0.216534214083195</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>138</v>
@@ -10517,19 +10517,19 @@
         <v>59618</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>50013</v>
+        <v>49485</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>69781</v>
+        <v>69218</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1373849059253709</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1152508077113408</v>
+        <v>0.11403452071413</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1608050526030116</v>
+        <v>0.1595082091470537</v>
       </c>
     </row>
     <row r="22">
@@ -10546,19 +10546,19 @@
         <v>4588</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2271</v>
+        <v>2178</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8837</v>
+        <v>8846</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02230850860329205</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0110424708330822</v>
+        <v>0.01059043339152651</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04296823671677501</v>
+        <v>0.0430130225701101</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -10567,19 +10567,19 @@
         <v>11313</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7898</v>
+        <v>7608</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16182</v>
+        <v>15542</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04955769787909343</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03459829542290708</v>
+        <v>0.03332580214800982</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07088598918728525</v>
+        <v>0.06808211563827873</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -10588,19 +10588,19 @@
         <v>15901</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10960</v>
+        <v>11508</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21816</v>
+        <v>22445</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0366431961963227</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02525722761561363</v>
+        <v>0.02651880741410543</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05027345637746262</v>
+        <v>0.05172333751025894</v>
       </c>
     </row>
     <row r="23">
@@ -10692,19 +10692,19 @@
         <v>243258</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>235494</v>
+        <v>234200</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>249706</v>
+        <v>249945</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8986039467654808</v>
+        <v>0.8986039467654809</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8699222071582789</v>
+        <v>0.865141781731996</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9224225970836079</v>
+        <v>0.9233030343193903</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>351</v>
@@ -10713,19 +10713,19 @@
         <v>219632</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>210829</v>
+        <v>210311</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>226980</v>
+        <v>227175</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.8327275918000672</v>
+        <v>0.8327275918000668</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7993527803563246</v>
+        <v>0.7973894125227053</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8605859316873677</v>
+        <v>0.8613285314883984</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>670</v>
@@ -10734,19 +10734,19 @@
         <v>462890</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>449526</v>
+        <v>451695</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>473384</v>
+        <v>474871</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8660945044037942</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8410895715328466</v>
+        <v>0.8451475703728067</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8857285202034508</v>
+        <v>0.8885113841027824</v>
       </c>
     </row>
     <row r="25">
@@ -10763,19 +10763,19 @@
         <v>12646</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7978</v>
+        <v>8051</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19119</v>
+        <v>19686</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04671510085726912</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02946976073405275</v>
+        <v>0.02974219109572482</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07062642876239469</v>
+        <v>0.07272174994750308</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -10784,19 +10784,19 @@
         <v>19807</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14868</v>
+        <v>14616</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26389</v>
+        <v>26513</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07509700218380032</v>
+        <v>0.0750970021838003</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05637120704338468</v>
+        <v>0.05541636469636586</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1000543913964217</v>
+        <v>0.1005214747700394</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -10805,19 +10805,19 @@
         <v>32453</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24850</v>
+        <v>25047</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41952</v>
+        <v>41151</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0607213370215858</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04649634631759165</v>
+        <v>0.0468642770335108</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07849440122906401</v>
+        <v>0.07699635971196421</v>
       </c>
     </row>
     <row r="26">
@@ -10834,19 +10834,19 @@
         <v>14803</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10090</v>
+        <v>10481</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20779</v>
+        <v>20963</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05468095237725006</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03727319082813273</v>
+        <v>0.03871818197706415</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07675876939039522</v>
+        <v>0.07743721823348647</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -10855,19 +10855,19 @@
         <v>24311</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18562</v>
+        <v>18796</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31383</v>
+        <v>31020</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.09217540601613269</v>
+        <v>0.09217540601613264</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07037788634172643</v>
+        <v>0.07126394145271744</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1189862551987733</v>
+        <v>0.1176096164533627</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>93</v>
@@ -10876,19 +10876,19 @@
         <v>39114</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31325</v>
+        <v>31292</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>48579</v>
+        <v>47423</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07318415857461995</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0586100805238956</v>
+        <v>0.05854837064256996</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09089356896954712</v>
+        <v>0.08873147062765498</v>
       </c>
     </row>
     <row r="27">
@@ -10980,19 +10980,19 @@
         <v>601593</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>578716</v>
+        <v>578318</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>620461</v>
+        <v>623874</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8359091942106609</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8041219131830027</v>
+        <v>0.8035687758358201</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8621256838671147</v>
+        <v>0.8668689051770837</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>691</v>
@@ -11001,19 +11001,19 @@
         <v>582692</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>561894</v>
+        <v>562237</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>602304</v>
+        <v>603574</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7547266774097042</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7277878777848946</v>
+        <v>0.7282319599780629</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7801286435941581</v>
+        <v>0.7817734400915451</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1177</v>
@@ -11022,19 +11022,19 @@
         <v>1184285</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1151248</v>
+        <v>1154032</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1213250</v>
+        <v>1213615</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7938929237000958</v>
+        <v>0.7938929237000959</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7717460527304172</v>
+        <v>0.7736126683326016</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8133095412611687</v>
+        <v>0.8135541812422987</v>
       </c>
     </row>
     <row r="29">
@@ -11051,19 +11051,19 @@
         <v>90114</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>74561</v>
+        <v>72330</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>111508</v>
+        <v>111833</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.125212682189784</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1036018458059558</v>
+        <v>0.1005016071101739</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.154940109029599</v>
+        <v>0.1553908693917719</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>164</v>
@@ -11072,19 +11072,19 @@
         <v>114749</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>98603</v>
+        <v>98933</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>132419</v>
+        <v>131411</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1486282533259785</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.127714042863541</v>
+        <v>0.1281414509454753</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1715140655168232</v>
+        <v>0.1702094676529791</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>250</v>
@@ -11093,19 +11093,19 @@
         <v>204863</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>179353</v>
+        <v>179462</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>231115</v>
+        <v>232136</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.137331485717764</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1202302134468417</v>
+        <v>0.120303331017528</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1549297053109361</v>
+        <v>0.1556140378409495</v>
       </c>
     </row>
     <row r="30">
@@ -11122,19 +11122,19 @@
         <v>27980</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18470</v>
+        <v>17464</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>39564</v>
+        <v>39457</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.03887812359955525</v>
+        <v>0.03887812359955524</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02566365328215014</v>
+        <v>0.02426663052248286</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05497367206047972</v>
+        <v>0.05482497714480829</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>105</v>
@@ -11143,19 +11143,19 @@
         <v>74616</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>61507</v>
+        <v>60904</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>88794</v>
+        <v>90194</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09664506926431712</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07966614714650318</v>
+        <v>0.07888525590300394</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1150095430912775</v>
+        <v>0.1168224864006175</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>132</v>
@@ -11164,19 +11164,19 @@
         <v>102596</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>86498</v>
+        <v>86244</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>121702</v>
+        <v>121104</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.06877559058214019</v>
+        <v>0.06877559058214021</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05798450013138487</v>
+        <v>0.05781436693439536</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08158349092386112</v>
+        <v>0.08118255900955224</v>
       </c>
     </row>
     <row r="31">
@@ -11268,19 +11268,19 @@
         <v>695879</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>676069</v>
+        <v>676669</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>712679</v>
+        <v>711686</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8719499867631361</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8471281569983371</v>
+        <v>0.847879122645427</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8930010018639929</v>
+        <v>0.8917572416384079</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>768</v>
@@ -11289,19 +11289,19 @@
         <v>633735</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>611850</v>
+        <v>612804</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>654686</v>
+        <v>654087</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7623133483860379</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7359886840685446</v>
+        <v>0.7371365581158921</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7875157839896733</v>
+        <v>0.7867949987368359</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1409</v>
@@ -11310,19 +11310,19 @@
         <v>1329614</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1301653</v>
+        <v>1301342</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1355786</v>
+        <v>1356787</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8160127102410449</v>
+        <v>0.8160127102410448</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7988526731461175</v>
+        <v>0.7986617797977713</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8320754369919536</v>
+        <v>0.8326897490157538</v>
       </c>
     </row>
     <row r="33">
@@ -11339,19 +11339,19 @@
         <v>71902</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>58235</v>
+        <v>57801</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>88842</v>
+        <v>89637</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09009425155598487</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07296907476303464</v>
+        <v>0.07242561364426951</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1113213656110252</v>
+        <v>0.1123164113097034</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>181</v>
@@ -11360,19 +11360,19 @@
         <v>121940</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>105804</v>
+        <v>106252</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>139042</v>
+        <v>140901</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.146680801377051</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1272704365090266</v>
+        <v>0.1278094334405302</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.167251811026888</v>
+        <v>0.1694888012300745</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>266</v>
@@ -11381,19 +11381,19 @@
         <v>193842</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>170732</v>
+        <v>171120</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>217509</v>
+        <v>216294</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.118965051788704</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1047820508560968</v>
+        <v>0.1050198596890156</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1334902964760701</v>
+        <v>0.1327443056351759</v>
       </c>
     </row>
     <row r="34">
@@ -11410,19 +11410,19 @@
         <v>30291</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>21966</v>
+        <v>21474</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>41097</v>
+        <v>41208</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03795576168087907</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02752373500866553</v>
+        <v>0.0269071010231146</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05149517280000245</v>
+        <v>0.05163474271947763</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>113</v>
@@ -11431,19 +11431,19 @@
         <v>75656</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>62009</v>
+        <v>61631</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>89540</v>
+        <v>90169</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0910058502369112</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07459017653331229</v>
+        <v>0.07413514404676146</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1077073302661056</v>
+        <v>0.1084628699861448</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>149</v>
@@ -11452,19 +11452,19 @@
         <v>105947</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>88580</v>
+        <v>89103</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>123158</v>
+        <v>122974</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0650222379702512</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05436374112087725</v>
+        <v>0.05468451847254594</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07558470560189881</v>
+        <v>0.07547202963149875</v>
       </c>
     </row>
     <row r="35">
@@ -11556,19 +11556,19 @@
         <v>3022273</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2977282</v>
+        <v>2977286</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3061179</v>
+        <v>3060311</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.855498622829217</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8427633504586944</v>
+        <v>0.8427643359194065</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8665115739601107</v>
+        <v>0.8662657401616076</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3929</v>
@@ -11577,19 +11577,19 @@
         <v>2904068</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2865473</v>
+        <v>2867739</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2946274</v>
+        <v>2948314</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.7772540999245229</v>
+        <v>0.7772540999245228</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7669243348587902</v>
+        <v>0.7675308027164239</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7885500595277626</v>
+        <v>0.7890960865210666</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6714</v>
@@ -11598,19 +11598,19 @@
         <v>5926342</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5864817</v>
+        <v>5868317</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5983778</v>
+        <v>5986585</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.8152808209782832</v>
+        <v>0.8152808209782834</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8068169465756951</v>
+        <v>0.8072984025194573</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8231822960447619</v>
+        <v>0.8235684228344871</v>
       </c>
     </row>
     <row r="37">
@@ -11627,19 +11627,19 @@
         <v>355326</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>318813</v>
+        <v>320776</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>393137</v>
+        <v>392845</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1005801948479711</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09024459556790236</v>
+        <v>0.09080030750952212</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1112832276719139</v>
+        <v>0.1112004608866784</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>922</v>
@@ -11648,19 +11648,19 @@
         <v>532748</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>501253</v>
+        <v>497138</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>566313</v>
+        <v>567406</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1425864069906987</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1341569339013242</v>
+        <v>0.1330555175360851</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1515697910160821</v>
+        <v>0.1518622429805283</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1322</v>
@@ -11669,19 +11669,19 @@
         <v>888074</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>841034</v>
+        <v>834226</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>942734</v>
+        <v>939665</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1221714507435726</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1157001803200206</v>
+        <v>0.1147635984286264</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1296910224265437</v>
+        <v>0.129268799235011</v>
       </c>
     </row>
     <row r="38">
@@ -11698,19 +11698,19 @@
         <v>155163</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>134443</v>
+        <v>130996</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>178882</v>
+        <v>179643</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04392118232281208</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03805596321064705</v>
+        <v>0.03708032029826021</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05063520173134484</v>
+        <v>0.05085046609771904</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>515</v>
@@ -11719,19 +11719,19 @@
         <v>299501</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>272916</v>
+        <v>274660</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>325738</v>
+        <v>324856</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08015949308477829</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07304409253200336</v>
+        <v>0.07351094589285337</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.08718162152560641</v>
+        <v>0.08694547505615617</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>706</v>
@@ -11740,19 +11740,19 @@
         <v>454664</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>419530</v>
+        <v>419659</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>491703</v>
+        <v>492639</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.06254772827814412</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05771435936956303</v>
+        <v>0.05773208132932815</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06764314568040411</v>
+        <v>0.0677718458982393</v>
       </c>
     </row>
     <row r="39">
